--- a/breeding_patterns - win, sum/Dam, Sire birth season/Seasonal_Births_ BW _ 5 yr.xlsx
+++ b/breeding_patterns - win, sum/Dam, Sire birth season/Seasonal_Births_ BW _ 5 yr.xlsx
@@ -20,40 +20,40 @@
     <t xml:space="preserve">BirthSeason</t>
   </si>
   <si>
-    <t xml:space="preserve">1964-1968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1969-1973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1974-1978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1979-1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1984-1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1989-1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994-1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-2023</t>
+    <t xml:space="preserve">1963-1967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1968-1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1973-1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1978-1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1983-1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988-1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993-1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-2022</t>
   </si>
   <si>
     <t xml:space="preserve">Summer</t>
@@ -437,40 +437,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="C2" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="D2" t="n">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>303</v>
+        <v>399</v>
       </c>
       <c r="F2" t="n">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="G2" t="n">
-        <v>931</v>
+        <v>1002</v>
       </c>
       <c r="H2" t="n">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="I2" t="n">
-        <v>826</v>
+        <v>675</v>
       </c>
       <c r="J2" t="n">
-        <v>747</v>
+        <v>906</v>
       </c>
       <c r="K2" t="n">
-        <v>513</v>
+        <v>448</v>
       </c>
       <c r="L2" t="n">
-        <v>823</v>
+        <v>500</v>
       </c>
       <c r="M2" t="n">
-        <v>239</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3">
@@ -478,40 +478,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="C3" t="n">
-        <v>769</v>
+        <v>813</v>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="F3" t="n">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="G3" t="n">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="H3" t="n">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="I3" t="n">
-        <v>729</v>
+        <v>655</v>
       </c>
       <c r="J3" t="n">
-        <v>516</v>
+        <v>647</v>
       </c>
       <c r="K3" t="n">
-        <v>505</v>
+        <v>361</v>
       </c>
       <c r="L3" t="n">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="M3" t="n">
-        <v>223</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -574,40 +574,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>547</v>
+        <v>498</v>
       </c>
       <c r="C2" t="n">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="D2" t="n">
-        <v>526</v>
+        <v>433</v>
       </c>
       <c r="E2" t="n">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="F2" t="n">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="G2" t="n">
-        <v>480</v>
+        <v>367</v>
       </c>
       <c r="H2" t="n">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="I2" t="n">
-        <v>509</v>
+        <v>713</v>
       </c>
       <c r="J2" t="n">
-        <v>488</v>
+        <v>264</v>
       </c>
       <c r="K2" t="n">
-        <v>571</v>
+        <v>721</v>
       </c>
       <c r="L2" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="M2" t="n">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3">
@@ -615,40 +615,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="C3" t="n">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="D3" t="n">
-        <v>457</v>
+        <v>377</v>
       </c>
       <c r="E3" t="n">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F3" t="n">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G3" t="n">
-        <v>472</v>
+        <v>335</v>
       </c>
       <c r="H3" t="n">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I3" t="n">
-        <v>678</v>
+        <v>859</v>
       </c>
       <c r="J3" t="n">
-        <v>521</v>
+        <v>413</v>
       </c>
       <c r="K3" t="n">
-        <v>655</v>
+        <v>699</v>
       </c>
       <c r="L3" t="n">
-        <v>700</v>
+        <v>663</v>
       </c>
       <c r="M3" t="n">
-        <v>648</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -711,40 +711,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C2" t="n">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="D2" t="n">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="E2" t="n">
-        <v>149</v>
+        <v>251</v>
       </c>
       <c r="F2" t="n">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="G2" t="n">
-        <v>474</v>
+        <v>285</v>
       </c>
       <c r="H2" t="n">
-        <v>234</v>
+        <v>414</v>
       </c>
       <c r="I2" t="n">
-        <v>360</v>
+        <v>235</v>
       </c>
       <c r="J2" t="n">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="L2" t="n">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="M2" t="n">
-        <v>148</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
@@ -752,40 +752,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C3" t="n">
-        <v>328</v>
+        <v>234</v>
       </c>
       <c r="D3" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E3" t="n">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="F3" t="n">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="G3" t="n">
-        <v>521</v>
+        <v>250</v>
       </c>
       <c r="H3" t="n">
-        <v>267</v>
+        <v>495</v>
       </c>
       <c r="I3" t="n">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="J3" t="n">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="K3" t="n">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="L3" t="n">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="M3" t="n">
-        <v>201</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -848,40 +848,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="C2" t="n">
-        <v>480</v>
+        <v>403</v>
       </c>
       <c r="D2" t="n">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="F2" t="n">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="G2" t="n">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="H2" t="n">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="I2" t="n">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="J2" t="n">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="K2" t="n">
         <v>128</v>
       </c>
       <c r="L2" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M2" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3">
@@ -889,40 +889,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C3" t="n">
-        <v>624</v>
+        <v>554</v>
       </c>
       <c r="D3" t="n">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="E3" t="n">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F3" t="n">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="G3" t="n">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="H3" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I3" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="K3" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="L3" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="M3" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
